--- a/iselUssSyncV2/OutputWSL/20220517_1143_D60L474W90Q8.9U0.19H60.5G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1143_D60L474W90Q8.9U0.19H60.5G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.060523667411786296</v>
       </c>
       <c r="G2" s="0">
-        <v>0.065165595238095217</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.06526286852589637</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0032628685258963659</v>
+      </c>
       <c r="I2" s="0">
         <v>0.037644301802439217</v>
       </c>
       <c r="J2" s="0">
-        <v>0.033953864541832669</v>
+        <v>0.031300239043824701</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.24156864180937077</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.35879697814103717</v>
+        <v>0.40537887468371286</v>
       </c>
       <c r="AA2" s="0">
         <v>0.20992848747895393</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.7265571245648066</v>
       </c>
-      <c r="AG2" s="0">
-        <v>10.018311522786544</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>5.8453297266606326</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>12.74486864735135</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
